--- a/result_table.xlsx
+++ b/result_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>WS-PSNR</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -37,18 +37,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>input</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ouput</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ans</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Test2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -84,6 +72,46 @@
   </si>
   <si>
     <t>PSNR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QP + YCbCr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YCbCr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPEG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>My</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transform formular</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encoding time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encoding time</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +146,26 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -146,23 +194,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -445,274 +505,673 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:N23"/>
+  <dimension ref="C2:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+    <row r="2" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="3:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="3:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="3:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="3:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="3:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="3:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="3:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="J9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="3:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="3:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-0.56722282756742004</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-4.1283293143948997E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-4.4934834720766197E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-0.64174099592771605</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <v>18.15283203125</v>
+      </c>
+      <c r="L11" s="7">
+        <v>9.0044860839843803</v>
+      </c>
+      <c r="M11" s="7">
+        <v>13.8334350585938</v>
+      </c>
+      <c r="N11" s="8">
+        <f>(L11-K11)/K11</f>
+        <v>-0.50396246335099626</v>
+      </c>
+      <c r="O11" s="8">
+        <f>(M11-K11)/K11</f>
+        <v>-0.23794617639938398</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-0.52917255237962901</v>
+      </c>
+      <c r="E12" s="3">
+        <v>-3.9384842214594901E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-4.3505397535468102E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>-0.59677676162187099</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>30.914102129528199</v>
+      </c>
+      <c r="L12" s="7">
+        <v>29.3499117380725</v>
+      </c>
+      <c r="M12" s="7">
+        <v>31.756154771144001</v>
+      </c>
+      <c r="N12" s="8">
+        <f>(L12-K12)/K12</f>
+        <v>-5.0597956392258704E-2</v>
+      </c>
+      <c r="O12" s="8">
+        <f>(M12-K12)/K12</f>
+        <v>2.7238463471707896E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-0.54521257056958605</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-4.4591556091481299E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>-4.8067851635330498E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>-0.61846544876359899</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="7">
+        <v>29.672582062319599</v>
+      </c>
+      <c r="L13" s="7">
+        <v>28.058011880580398</v>
+      </c>
+      <c r="M13" s="7">
+        <v>29.848799898807702</v>
+      </c>
+      <c r="N13" s="8">
+        <f>(L13-K13)/K13</f>
+        <v>-5.4412864318589209E-2</v>
+      </c>
+      <c r="O13" s="8">
+        <f>(M13-K13)/K13</f>
+        <v>5.9387429148566508E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-0.53919173817145005</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-6.8608016744163294E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-7.2014515218580002E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-0.635384851075524</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="7">
+        <v>26.868219400000001</v>
+      </c>
+      <c r="L14" s="7">
+        <v>11.7037438</v>
+      </c>
+      <c r="M14" s="7">
+        <v>26.448325199999999</v>
+      </c>
+      <c r="N14" s="8">
+        <f>(L14-K14)/K14</f>
+        <v>-0.56440195661049275</v>
+      </c>
+      <c r="O14" s="8">
+        <f>(M14-K14)/K14</f>
+        <v>-1.5627913176859114E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-0.60205953099097298</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-2.0079753833576498E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-1.9175715823705301E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-0.65310954541277899</v>
+      </c>
+    </row>
+    <row r="16" spans="3:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-0.54983670881533098</v>
+      </c>
+      <c r="E16" s="3">
+        <v>-7.1523984906000398E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>-6.9675814324203195E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>-0.62458547542693299</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-0.57435793784286904</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-0.108796703299751</v>
+      </c>
+      <c r="F17" s="3">
+        <v>-0.13939958906847499</v>
+      </c>
+      <c r="G17" s="3">
+        <v>-0.64334136431546096</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-0.59097508338238203</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3.2536952147101103E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-3.5324430258789799E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-0.65877403014128399</v>
+      </c>
+      <c r="J18">
+        <v>-0.19859006587397299</v>
+      </c>
+      <c r="K18">
+        <v>-2.7891519601911999E-2</v>
+      </c>
+      <c r="L18">
+        <v>-8.9382244486242199E-2</v>
+      </c>
+      <c r="M18">
+        <v>-0.130835834129433</v>
+      </c>
+      <c r="N18">
+        <v>-0.19338641260922901</v>
+      </c>
+      <c r="O18">
+        <v>-0.123777038910239</v>
+      </c>
+      <c r="P18">
+        <v>-0.28966310661852801</v>
+      </c>
+      <c r="Q18">
+        <v>-0.30222473455784399</v>
+      </c>
+      <c r="R18">
+        <v>-4.4486963442480397E-2</v>
+      </c>
+      <c r="S18">
+        <v>-0.20277287741778399</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3">
+        <v>-0.52884215836602499</v>
+      </c>
+      <c r="E19" s="3">
+        <v>-6.0147045643192697E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>-6.2325785827325002E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>-0.59617927353157396</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-0.55823593129248195</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-4.94044384005633E-2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-5.2733918106149302E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-0.631420730559898</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="D21" s="4">
+        <f>AVERAGE(D11:D20)</f>
+        <v>-0.55851070393781477</v>
+      </c>
+      <c r="E21" s="4">
+        <f>AVERAGE(E11:E20)</f>
+        <v>-5.3635658642437342E-2</v>
+      </c>
+      <c r="F21" s="4">
+        <f>AVERAGE(F11:F20)</f>
+        <v>-5.8715785251879239E-2</v>
+      </c>
+      <c r="G21" s="4">
+        <f>AVERAGE(G11:G20)</f>
+        <v>-0.62997784767766396</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="3:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="3:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3">
+        <v>-0.35492202397167</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3.2577183782590197E-2</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1.6095586504448301E-2</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-0.19859006587397299</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K3">
-        <v>11.8607</v>
-      </c>
-      <c r="L3">
-        <v>32.060400000000001</v>
-      </c>
-      <c r="M3">
-        <v>31.5547</v>
-      </c>
-      <c r="N3">
-        <v>16.418099999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6">
-        <v>-0.80220000000000002</v>
-      </c>
-      <c r="E4" s="6">
-        <v>5.8100000000000001E-3</v>
-      </c>
-      <c r="F4" s="6">
-        <v>-8.3999999999999995E-3</v>
-      </c>
-      <c r="G4" s="6">
-        <v>-0.40479999999999999</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="D27" s="3">
+        <v>-0.26957851862715598</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5.1249308264654597E-2</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3.7741776906765799E-2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-2.7891519601911999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K4">
-        <v>7.6026999999999996</v>
-      </c>
-      <c r="L4">
-        <v>32.710700000000003</v>
-      </c>
-      <c r="M4">
-        <v>31.837</v>
-      </c>
-      <c r="N4">
-        <v>13.846</v>
-      </c>
-    </row>
-    <row r="5" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
+      <c r="D28" s="3">
+        <v>-0.30136815990686799</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2.5609105170557402E-2</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1.13388924581462E-2</v>
+      </c>
+      <c r="G28" s="3">
+        <v>-8.9382244486242199E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="3">
+        <v>-0.31761657072921401</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-1.08069492278646E-2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-2.5958031360635601E-2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-0.130835834129433</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6">
-        <v>-0.61</v>
-      </c>
-      <c r="E5" s="6">
-        <f>(34.5485-34.2682)/34.2682</f>
-        <v>8.1795950764848128E-3</v>
-      </c>
-      <c r="F5" s="6">
-        <v>-1.8E-3</v>
-      </c>
-      <c r="G5" s="6">
-        <v>-0.25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="4">
-        <f>(K4-K3)/K4</f>
-        <v>-0.56006418772278277</v>
-      </c>
-      <c r="L5" s="4">
-        <f>(L4-L3)/L4</f>
-        <v>1.9880344963574652E-2</v>
-      </c>
-      <c r="M5" s="4">
-        <f>(M4-M3)/M4</f>
-        <v>8.8670414926029246E-3</v>
-      </c>
-      <c r="N5" s="4">
-        <f>(N4-N3)/N4</f>
-        <v>-0.18576484183157582</v>
-      </c>
-    </row>
-    <row r="6" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
+      <c r="D30" s="3">
+        <v>-0.42052176608505298</v>
+      </c>
+      <c r="E30" s="3">
+        <v>4.68523661481497E-2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2.77689568297117E-2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>-0.19338641260922901</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6">
-        <v>-0.79</v>
-      </c>
-      <c r="E6" s="6">
-        <v>-5.8999999999999997E-2</v>
-      </c>
-      <c r="F6" s="6">
-        <v>-7.1800000000000003E-2</v>
-      </c>
-      <c r="G6" s="6">
-        <v>-0.43</v>
-      </c>
-    </row>
-    <row r="7" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
+      <c r="D31" s="3">
+        <v>-0.32655645010148399</v>
+      </c>
+      <c r="E31" s="3">
+        <v>-2.3914241992776499E-2</v>
+      </c>
+      <c r="F31" s="3">
+        <v>-2.9646988124729198E-2</v>
+      </c>
+      <c r="G31" s="3">
+        <v>-0.123777038910239</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6">
-        <v>-0.8921821710538711</v>
-      </c>
-      <c r="E7" s="6">
-        <v>3.5867031519205374E-2</v>
-      </c>
-      <c r="F7" s="6">
-        <v>2.1253840612733881E-2</v>
-      </c>
-      <c r="G7" s="6">
-        <v>-0.40959376388474877</v>
-      </c>
-    </row>
-    <row r="8" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="5" t="s">
+      <c r="D32" s="3">
+        <v>-0.39653707713419301</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-6.06811556367075E-2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-0.105842149601938</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-0.28966310661852801</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="6">
-        <v>-0.75698198973793862</v>
-      </c>
-      <c r="E8" s="6">
-        <v>-5.9775428254229102E-2</v>
-      </c>
-      <c r="F8" s="6">
-        <v>-6.0831271714590886E-2</v>
-      </c>
-      <c r="G8" s="6">
-        <v>-0.35293394441522596</v>
-      </c>
-    </row>
-    <row r="9" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="5" t="s">
+      <c r="D33" s="3">
+        <v>-0.39259971929189103</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3.4044110546434497E-2</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1.33460835963552E-2</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-0.30222473455784399</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="6">
-        <v>-1.1089936046667201</v>
-      </c>
-      <c r="E9" s="6">
-        <v>-0.10110577983675267</v>
-      </c>
-      <c r="F9" s="6">
-        <v>-0.1655459127994596</v>
-      </c>
-      <c r="G9" s="6">
-        <v>-0.70513833524211988</v>
-      </c>
-    </row>
-    <row r="10" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="s">
+      <c r="D34" s="3">
+        <v>-0.27633537115585</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2.2116727594593101E-3</v>
+      </c>
+      <c r="F34" s="3">
+        <v>-9.57603695963157E-3</v>
+      </c>
+      <c r="G34" s="3">
+        <v>-4.4486963442480397E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="6">
-        <v>-0.88371464768789354</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1.4858267118697749E-2</v>
-      </c>
-      <c r="F10" s="6">
-        <v>-8.7124673282486047E-4</v>
-      </c>
-      <c r="G10" s="6">
-        <v>-0.58064157417605711</v>
-      </c>
-    </row>
-    <row r="11" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="6">
-        <v>-0.61180760061702422</v>
-      </c>
-      <c r="E11" s="6">
-        <v>-2.892335098465067E-2</v>
-      </c>
-      <c r="F11" s="6">
-        <v>-3.6269348131986338E-2</v>
-      </c>
-      <c r="G11" s="6">
-        <v>-0.26869719138843595</v>
-      </c>
-    </row>
-    <row r="12" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="6">
-        <v>-0.79290633212483952</v>
-      </c>
-      <c r="E12" s="6">
-        <v>-4.5258308853467115E-3</v>
-      </c>
-      <c r="F12" s="6">
-        <v>-1.6598945885741866E-2</v>
-      </c>
-      <c r="G12" s="6">
-        <v>-0.42545584737743908</v>
-      </c>
-    </row>
-    <row r="13" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="6">
-        <v>-0.56006418772278277</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1.9880344963574652E-2</v>
-      </c>
-      <c r="F13" s="6">
-        <v>8.8670414926029246E-3</v>
-      </c>
-      <c r="G13" s="6">
-        <v>-0.18576484183157582</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="3"/>
+      <c r="D35" s="3">
+        <v>-0.34222910070142498</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2.19402432231997E-2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>6.6349901049335101E-3</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-0.20277287741778399</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="4">
+        <f>AVERAGE(D26:D35)</f>
+        <v>-0.33982647577048042</v>
+      </c>
+      <c r="E36" s="4">
+        <f>AVERAGE(E26:E35)</f>
+        <v>1.1908164303769678E-2</v>
+      </c>
+      <c r="F36" s="4">
+        <f>AVERAGE(F26:F35)</f>
+        <v>-5.809691964657364E-3</v>
+      </c>
+      <c r="G36" s="4">
+        <f>AVERAGE(G26:G35)</f>
+        <v>-0.16030107976476646</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J9:O9"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
